--- a/SchedulingData/dynamic11/pso/scheduling2_10.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,55 +466,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>210.56</v>
+        <v>235.38</v>
       </c>
       <c r="D2" t="n">
-        <v>272.68</v>
+        <v>283.38</v>
       </c>
       <c r="E2" t="n">
-        <v>14.232</v>
+        <v>11.332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>224.08</v>
+        <v>213.64</v>
       </c>
       <c r="D3" t="n">
-        <v>279.08</v>
+        <v>258.8</v>
       </c>
       <c r="E3" t="n">
-        <v>14.652</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>219.52</v>
+        <v>230.4</v>
       </c>
       <c r="D4" t="n">
-        <v>303.52</v>
+        <v>282.6</v>
       </c>
       <c r="E4" t="n">
-        <v>10.368</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>303.52</v>
+        <v>219.18</v>
       </c>
       <c r="D5" t="n">
-        <v>360.34</v>
+        <v>277.48</v>
       </c>
       <c r="E5" t="n">
-        <v>7.776</v>
+        <v>11.412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>279.08</v>
+        <v>282.6</v>
       </c>
       <c r="D6" t="n">
-        <v>320.14</v>
+        <v>334.98</v>
       </c>
       <c r="E6" t="n">
-        <v>11.676</v>
+        <v>7.332</v>
       </c>
     </row>
     <row r="7">
@@ -561,55 +561,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>272.68</v>
+        <v>283.38</v>
       </c>
       <c r="D7" t="n">
-        <v>317.84</v>
+        <v>340.78</v>
       </c>
       <c r="E7" t="n">
-        <v>11.856</v>
+        <v>9.172000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>215.56</v>
+        <v>277.48</v>
       </c>
       <c r="D8" t="n">
-        <v>268.8</v>
+        <v>344.64</v>
       </c>
       <c r="E8" t="n">
-        <v>13.78</v>
+        <v>8.276</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>265.3</v>
+        <v>248.74</v>
       </c>
       <c r="D9" t="n">
-        <v>302.52</v>
+        <v>285.48</v>
       </c>
       <c r="E9" t="n">
-        <v>12.908</v>
+        <v>12.632</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>317.84</v>
+        <v>340.78</v>
       </c>
       <c r="D10" t="n">
-        <v>356.7</v>
+        <v>385.68</v>
       </c>
       <c r="E10" t="n">
-        <v>9.1</v>
+        <v>6.312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>268.8</v>
+        <v>344.64</v>
       </c>
       <c r="D11" t="n">
-        <v>328.66</v>
+        <v>384.7</v>
       </c>
       <c r="E11" t="n">
-        <v>11.404</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="12">
@@ -656,93 +656,93 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>233.98</v>
+        <v>258.8</v>
       </c>
       <c r="D12" t="n">
-        <v>292.48</v>
+        <v>311.12</v>
       </c>
       <c r="E12" t="n">
-        <v>10.392</v>
+        <v>9.747999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>328.66</v>
+        <v>311.12</v>
       </c>
       <c r="D13" t="n">
-        <v>392.26</v>
+        <v>370.2</v>
       </c>
       <c r="E13" t="n">
-        <v>8.164</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>302.52</v>
+        <v>384.7</v>
       </c>
       <c r="D14" t="n">
-        <v>367.18</v>
+        <v>423.66</v>
       </c>
       <c r="E14" t="n">
-        <v>10.532</v>
+        <v>3.144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>392.26</v>
+        <v>423.66</v>
       </c>
       <c r="D15" t="n">
-        <v>442.16</v>
+        <v>518.67</v>
       </c>
       <c r="E15" t="n">
-        <v>5.304</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>367.18</v>
+        <v>518.67</v>
       </c>
       <c r="D16" t="n">
-        <v>433.1</v>
+        <v>602.37</v>
       </c>
       <c r="E16" t="n">
-        <v>7.06</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>320.14</v>
+        <v>285.48</v>
       </c>
       <c r="D17" t="n">
-        <v>359.52</v>
+        <v>349.86</v>
       </c>
       <c r="E17" t="n">
-        <v>8.868</v>
+        <v>9.824</v>
       </c>
     </row>
     <row r="18">
@@ -770,36 +770,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>292.48</v>
+        <v>370.2</v>
       </c>
       <c r="D18" t="n">
-        <v>359.18</v>
+        <v>413.44</v>
       </c>
       <c r="E18" t="n">
-        <v>8.311999999999999</v>
+        <v>4.256</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>360.34</v>
+        <v>231.58</v>
       </c>
       <c r="D19" t="n">
-        <v>398.04</v>
+        <v>271.54</v>
       </c>
       <c r="E19" t="n">
-        <v>5.136</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>359.52</v>
+        <v>349.86</v>
       </c>
       <c r="D20" t="n">
-        <v>402.22</v>
+        <v>385.36</v>
       </c>
       <c r="E20" t="n">
-        <v>6.708</v>
+        <v>7.404</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>402.22</v>
+        <v>271.54</v>
       </c>
       <c r="D21" t="n">
-        <v>456.18</v>
+        <v>329.9</v>
       </c>
       <c r="E21" t="n">
-        <v>3.952</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>442.16</v>
+        <v>334.98</v>
       </c>
       <c r="D22" t="n">
-        <v>499.66</v>
+        <v>413.18</v>
       </c>
       <c r="E22" t="n">
-        <v>3.144</v>
+        <v>4.092</v>
       </c>
     </row>
     <row r="23">
@@ -865,98 +865,98 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>356.7</v>
+        <v>385.68</v>
       </c>
       <c r="D23" t="n">
-        <v>397.76</v>
+        <v>427.9</v>
       </c>
       <c r="E23" t="n">
-        <v>6.124</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>433.1</v>
+        <v>427.9</v>
       </c>
       <c r="D24" t="n">
-        <v>485.3</v>
+        <v>455.1</v>
       </c>
       <c r="E24" t="n">
-        <v>4.94</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>359.18</v>
+        <v>455.1</v>
       </c>
       <c r="D25" t="n">
-        <v>423.36</v>
+        <v>563.12</v>
       </c>
       <c r="E25" t="n">
-        <v>6.024</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>485.3</v>
+        <v>385.36</v>
       </c>
       <c r="D26" t="n">
-        <v>524.6799999999999</v>
+        <v>452.96</v>
       </c>
       <c r="E26" t="n">
-        <v>2.132</v>
+        <v>4.764</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>456.18</v>
+        <v>413.18</v>
       </c>
       <c r="D27" t="n">
-        <v>542.78</v>
+        <v>487.36</v>
       </c>
       <c r="E27" t="n">
-        <v>0.872</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>542.78</v>
+        <v>487.36</v>
       </c>
       <c r="D28" t="n">
-        <v>622.9400000000001</v>
+        <v>576.39</v>
       </c>
       <c r="E28" t="n">
         <v>30</v>
@@ -979,36 +979,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>398.04</v>
+        <v>602.37</v>
       </c>
       <c r="D29" t="n">
-        <v>471.04</v>
+        <v>668.97</v>
       </c>
       <c r="E29" t="n">
-        <v>1.416</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>471.04</v>
+        <v>413.44</v>
       </c>
       <c r="D30" t="n">
-        <v>535.21</v>
+        <v>468.24</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>1.396</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>423.36</v>
+        <v>468.24</v>
       </c>
       <c r="D31" t="n">
-        <v>470.48</v>
+        <v>542.25</v>
       </c>
       <c r="E31" t="n">
-        <v>3.432</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>524.6799999999999</v>
+        <v>542.25</v>
       </c>
       <c r="D32" t="n">
-        <v>587.42</v>
+        <v>611.53</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="33">
@@ -1055,147 +1055,147 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>587.42</v>
+        <v>329.9</v>
       </c>
       <c r="D33" t="n">
-        <v>654.62</v>
+        <v>398.4</v>
       </c>
       <c r="E33" t="n">
-        <v>26.92</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>397.76</v>
+        <v>452.96</v>
       </c>
       <c r="D34" t="n">
-        <v>429.6</v>
+        <v>502.96</v>
       </c>
       <c r="E34" t="n">
-        <v>3.58</v>
+        <v>1.904</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>499.66</v>
+        <v>502.96</v>
       </c>
       <c r="D35" t="n">
-        <v>552.3200000000001</v>
+        <v>595.55</v>
       </c>
       <c r="E35" t="n">
-        <v>0.008</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>552.3200000000001</v>
+        <v>595.55</v>
       </c>
       <c r="D36" t="n">
-        <v>648.7</v>
+        <v>668.45</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>654.62</v>
+        <v>563.12</v>
       </c>
       <c r="D37" t="n">
-        <v>722.8200000000001</v>
+        <v>617.0599999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>23.68</v>
+        <v>27.756</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>648.7</v>
+        <v>398.4</v>
       </c>
       <c r="D38" t="n">
-        <v>708.3</v>
+        <v>435.9</v>
       </c>
       <c r="E38" t="n">
-        <v>26.7</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>470.48</v>
+        <v>435.9</v>
       </c>
       <c r="D39" t="n">
-        <v>506.08</v>
+        <v>473.12</v>
       </c>
       <c r="E39" t="n">
-        <v>1.012</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>506.08</v>
+        <v>473.12</v>
       </c>
       <c r="D40" t="n">
-        <v>600.66</v>
+        <v>552.1799999999999</v>
       </c>
       <c r="E40" t="n">
         <v>30</v>
@@ -1203,26 +1203,26 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>622.9400000000001</v>
+        <v>576.39</v>
       </c>
       <c r="D41" t="n">
-        <v>681.88</v>
+        <v>635.65</v>
       </c>
       <c r="E41" t="n">
-        <v>27.756</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1230,70 +1230,32 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>722.8200000000001</v>
+        <v>617.0599999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>754.92</v>
+        <v>663.86</v>
       </c>
       <c r="E42" t="n">
-        <v>21.6</v>
+        <v>25.676</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>429.6</v>
+        <v>552.1799999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>503.1</v>
+        <v>611.78</v>
       </c>
       <c r="E43" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>503.1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>613.72</v>
-      </c>
-      <c r="E44" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>pond5</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>600.66</v>
-      </c>
-      <c r="D45" t="n">
-        <v>660.4400000000001</v>
-      </c>
-      <c r="E45" t="n">
-        <v>27.192</v>
+        <v>26.7</v>
       </c>
     </row>
   </sheetData>
